--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ProjectSchedule" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">ProjectSchedule!$1:$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">ProjectSchedule!$1:$30</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">ProjectSchedule!$4:$6</definedName>
     <definedName function="false" hidden="false" name="valuevx" vbProcedure="false">42.314159</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="task_end" vbProcedure="false">ProjectSchedule!$F1</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t xml:space="preserve">Customer Notification System</t>
   </si>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">DAYS</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 1: Get Packaging Set Up</t>
+    <t xml:space="preserve">Phase 1: Packaging, Testing, and Research</t>
   </si>
   <si>
     <t xml:space="preserve">Create Basic Hello World Installer</t>
@@ -115,13 +115,49 @@
     <t xml:space="preserve">Create first Iteration of Server Installer</t>
   </si>
   <si>
-    <t xml:space="preserve">Create first Iteration of Database Launcher</t>
+    <t xml:space="preserve">Fully Operational Version of Server Installer</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 2: Create Testing and Metrics for Launch</t>
+    <t xml:space="preserve">Gavin &amp; Faisal</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 3: Preparatory Launch</t>
+    <t xml:space="preserve">Researching Deployment Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry &amp; Usama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign up for Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 2: Adding Test Cases and Getting Server Ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting RTL Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Test Cases to Server Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres &amp; Faisal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Test Cases to Client Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres &amp; Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 3: Preparatory Launch and </t>
   </si>
   <si>
     <t xml:space="preserve">Insert new rows ABOVE this one</t>
@@ -131,15 +167,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="ddd&quot;, &quot;m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="168" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -498,7 +533,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -590,7 +625,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -602,15 +637,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="4" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="4" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,15 +669,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="5" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="5" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,31 +693,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="6" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="6" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="7" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="7" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,15 +729,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="8" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="8" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,11 +749,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="9" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="9" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,15 +765,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="10" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="16" fillId="10" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,7 +789,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,12 +919,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:BL33"/>
+  <dimension ref="A1:BR1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1828,15 +1863,20 @@
       <c r="B11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="33" t="n">
+        <v>45191</v>
+      </c>
+      <c r="F11" s="34" t="n">
+        <v>45217</v>
+      </c>
       <c r="G11" s="27"/>
-      <c r="H11" s="27" t="str">
-        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H11" s="27"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
@@ -1849,8 +1889,8 @@
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="28"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
@@ -1896,11 +1936,21 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33" t="n">
+        <v>45191</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <v>45203</v>
+      </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="28"/>
@@ -1962,11 +2012,21 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="33" t="n">
+        <v>45204</v>
+      </c>
+      <c r="F13" s="34" t="n">
+        <v>45209</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
@@ -2098,7 +2158,7 @@
     <row r="15" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
@@ -2168,15 +2228,25 @@
     </row>
     <row r="16" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44" t="n">
+        <v>45191</v>
+      </c>
+      <c r="F16" s="44" t="n">
+        <v>45196</v>
+      </c>
       <c r="G16" s="27"/>
-      <c r="H16" s="27" t="str">
+      <c r="H16" s="27" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -2237,11 +2307,21 @@
     </row>
     <row r="17" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="44" t="n">
+        <v>45197</v>
+      </c>
+      <c r="F17" s="44" t="n">
+        <v>45218</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -2303,15 +2383,25 @@
     </row>
     <row r="18" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="44" t="n">
+        <v>45197</v>
+      </c>
+      <c r="F18" s="44" t="n">
+        <v>45218</v>
+      </c>
       <c r="G18" s="27"/>
-      <c r="H18" s="27" t="str">
+      <c r="H18" s="27" t="n">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -2372,11 +2462,21 @@
     </row>
     <row r="19" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44" t="n">
+        <v>45204</v>
+      </c>
+      <c r="F19" s="44" t="n">
+        <v>45207</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -2438,11 +2538,21 @@
     </row>
     <row r="20" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44" t="n">
+        <v>45207</v>
+      </c>
+      <c r="F20" s="44" t="n">
+        <v>45209</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -2502,7 +2612,7 @@
       <c r="BK20" s="28"/>
       <c r="BL20" s="28"/>
     </row>
-    <row r="21" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2510,10 +2620,7 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="27" t="str">
-        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H21" s="27"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -2526,8 +2633,8 @@
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="28"/>
       <c r="X21" s="28"/>
       <c r="Y21" s="28"/>
@@ -2573,13 +2680,11 @@
     </row>
     <row r="22" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
-      <c r="B22" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2642,13 +2747,15 @@
       <c r="BK22" s="28"/>
       <c r="BL22" s="28"/>
     </row>
-    <row r="23" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2719,7 +2826,10 @@
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="H24" s="27" t="str">
+        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -2975,7 +3085,7 @@
       <c r="BK27" s="28"/>
       <c r="BL27" s="28"/>
     </row>
-    <row r="28" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="29" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18"/>
       <c r="B28" s="50"/>
       <c r="C28" s="51"/>
@@ -2983,10 +3093,7 @@
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="27" t="str">
-        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H28" s="27"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
@@ -3046,93 +3153,231 @@
     </row>
     <row r="29" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18"/>
-      <c r="B29" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59" t="str">
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27" t="str">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="60"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="60"/>
-      <c r="AS29" s="60"/>
-      <c r="AT29" s="60"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="60"/>
-      <c r="AW29" s="60"/>
-      <c r="AX29" s="60"/>
-      <c r="AY29" s="60"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="60"/>
-      <c r="BB29" s="60"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="60"/>
-      <c r="BE29" s="60"/>
-      <c r="BF29" s="60"/>
-      <c r="BG29" s="60"/>
-      <c r="BH29" s="60"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="60"/>
-      <c r="BK29" s="60"/>
-      <c r="BL29" s="60"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="28"/>
+      <c r="AU29" s="28"/>
+      <c r="AV29" s="28"/>
+      <c r="AW29" s="28"/>
+      <c r="AX29" s="28"/>
+      <c r="AY29" s="28"/>
+      <c r="AZ29" s="28"/>
+      <c r="BA29" s="28"/>
+      <c r="BB29" s="28"/>
+      <c r="BC29" s="28"/>
+      <c r="BD29" s="28"/>
+      <c r="BE29" s="28"/>
+      <c r="BF29" s="28"/>
+      <c r="BG29" s="28"/>
+      <c r="BH29" s="28"/>
+      <c r="BI29" s="28"/>
+      <c r="BJ29" s="28"/>
+      <c r="BK29" s="28"/>
+      <c r="BL29" s="28"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="G30" s="11"/>
+    <row r="30" s="29" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18"/>
+      <c r="B30" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59" t="str">
+        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="60"/>
+      <c r="AQ30" s="60"/>
+      <c r="AR30" s="60"/>
+      <c r="AS30" s="60"/>
+      <c r="AT30" s="60"/>
+      <c r="AU30" s="60"/>
+      <c r="AV30" s="60"/>
+      <c r="AW30" s="60"/>
+      <c r="AX30" s="60"/>
+      <c r="AY30" s="60"/>
+      <c r="AZ30" s="60"/>
+      <c r="BA30" s="60"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="60"/>
+      <c r="BD30" s="60"/>
+      <c r="BE30" s="60"/>
+      <c r="BF30" s="60"/>
+      <c r="BG30" s="60"/>
+      <c r="BH30" s="60"/>
+      <c r="BI30" s="60"/>
+      <c r="BJ30" s="60"/>
+      <c r="BK30" s="60"/>
+      <c r="BL30" s="60"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="F31" s="62" t="n">
-        <v>43113</v>
-      </c>
+    <row r="31" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="0"/>
+      <c r="BN31" s="0"/>
+      <c r="BO31" s="0"/>
+      <c r="BP31" s="0"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="F32" s="62" t="n">
+        <v>43113</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="65"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
     </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="65"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J1:AA1"/>
@@ -3147,7 +3392,7 @@
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D29">
+  <conditionalFormatting sqref="D7:D30">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -3156,12 +3401,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90C42D5C-B21B-422C-9712-54D94761F0B0}</x14:id>
+          <x14:id>{23DA16DC-D440-43FB-AAE2-3F15DE8D36B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL29">
+  <conditionalFormatting sqref="I7:BL30">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3169,7 +3414,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL29">
+  <conditionalFormatting sqref="I5:BL30">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
@@ -3192,7 +3437,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90C42D5C-B21B-422C-9712-54D94761F0B0}">
+          <x14:cfRule type="dataBar" id="{23DA16DC-D440-43FB-AAE2-3F15DE8D36B6}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3204,7 +3449,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D29</xm:sqref>
+          <xm:sqref>D7:D30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
